--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H2">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I2">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J2">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3547547963114</v>
+        <v>36.51516</v>
       </c>
       <c r="N2">
-        <v>31.3547547963114</v>
+        <v>109.54548</v>
       </c>
       <c r="O2">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="P2">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="Q2">
-        <v>164.6031368759822</v>
+        <v>483.49363073088</v>
       </c>
       <c r="R2">
-        <v>164.6031368759822</v>
+        <v>4351.44267657792</v>
       </c>
       <c r="S2">
-        <v>0.04543796263190364</v>
+        <v>0.04030520268452136</v>
       </c>
       <c r="T2">
-        <v>0.04543796263190364</v>
+        <v>0.04030520268452137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H3">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I3">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J3">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.2288238319008</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N3">
-        <v>42.2288238319008</v>
+        <v>126.793659</v>
       </c>
       <c r="O3">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="P3">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="Q3">
-        <v>221.6887650523686</v>
+        <v>559.6207761704375</v>
       </c>
       <c r="R3">
-        <v>221.6887650523686</v>
+        <v>5036.586985533937</v>
       </c>
       <c r="S3">
-        <v>0.06119619597500021</v>
+        <v>0.04665134631850704</v>
       </c>
       <c r="T3">
-        <v>0.06119619597500021</v>
+        <v>0.04665134631850705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H4">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I4">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J4">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0403904790522</v>
+        <v>31.24183366666666</v>
       </c>
       <c r="N4">
-        <v>24.0403904790522</v>
+        <v>93.72550099999999</v>
       </c>
       <c r="O4">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511313</v>
       </c>
       <c r="P4">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511314</v>
       </c>
       <c r="Q4">
-        <v>126.2048997124036</v>
+        <v>413.6700370527449</v>
       </c>
       <c r="R4">
-        <v>126.2048997124036</v>
+        <v>3723.030333474704</v>
       </c>
       <c r="S4">
-        <v>0.03483830032604977</v>
+        <v>0.0344845384265358</v>
       </c>
       <c r="T4">
-        <v>0.03483830032604977</v>
+        <v>0.03448453842653581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.8578914500134</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H5">
-        <v>31.8578914500134</v>
+        <v>15.811511</v>
       </c>
       <c r="I5">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="J5">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.3547547963114</v>
+        <v>36.51516</v>
       </c>
       <c r="N5">
-        <v>31.3547547963114</v>
+        <v>109.54548</v>
       </c>
       <c r="O5">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="P5">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="Q5">
-        <v>998.8963747426757</v>
+        <v>192.45328466892</v>
       </c>
       <c r="R5">
-        <v>998.8963747426757</v>
+        <v>1732.07956202028</v>
       </c>
       <c r="S5">
-        <v>0.2757408941902395</v>
+        <v>0.01604337296885779</v>
       </c>
       <c r="T5">
-        <v>0.2757408941902395</v>
+        <v>0.01604337296885779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.8578914500134</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H6">
-        <v>31.8578914500134</v>
+        <v>15.811511</v>
       </c>
       <c r="I6">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="J6">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.2288238319008</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N6">
-        <v>42.2288238319008</v>
+        <v>126.793659</v>
       </c>
       <c r="O6">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="P6">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="Q6">
-        <v>1345.321285698435</v>
+        <v>222.7554815565277</v>
       </c>
       <c r="R6">
-        <v>1345.321285698435</v>
+        <v>2004.799334008749</v>
       </c>
       <c r="S6">
-        <v>0.3713699475455716</v>
+        <v>0.01856943765660776</v>
       </c>
       <c r="T6">
-        <v>0.3713699475455716</v>
+        <v>0.01856943765660776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.270503666666666</v>
+      </c>
+      <c r="H7">
+        <v>15.811511</v>
+      </c>
+      <c r="I7">
+        <v>0.04833928449947708</v>
+      </c>
+      <c r="J7">
+        <v>0.04833928449947708</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.24183366666666</v>
+      </c>
+      <c r="N7">
+        <v>93.72550099999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2839610477511313</v>
+      </c>
+      <c r="P7">
+        <v>0.2839610477511314</v>
+      </c>
+      <c r="Q7">
+        <v>164.6601988935568</v>
+      </c>
+      <c r="R7">
+        <v>1481.941790042011</v>
+      </c>
+      <c r="S7">
+        <v>0.01372647387401153</v>
+      </c>
+      <c r="T7">
+        <v>0.01372647387401154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H8">
+        <v>271.560221</v>
+      </c>
+      <c r="I8">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J8">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>36.51516</v>
+      </c>
+      <c r="N8">
+        <v>109.54548</v>
+      </c>
+      <c r="O8">
+        <v>0.3318909895952502</v>
+      </c>
+      <c r="P8">
+        <v>0.3318909895952502</v>
+      </c>
+      <c r="Q8">
+        <v>3305.35497315012</v>
+      </c>
+      <c r="R8">
+        <v>29748.19475835108</v>
+      </c>
+      <c r="S8">
+        <v>0.275542413941871</v>
+      </c>
+      <c r="T8">
+        <v>0.275542413941871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>31.8578914500134</v>
-      </c>
-      <c r="H7">
-        <v>31.8578914500134</v>
-      </c>
-      <c r="I7">
-        <v>0.8585275410670464</v>
-      </c>
-      <c r="J7">
-        <v>0.8585275410670464</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>24.0403904790522</v>
-      </c>
-      <c r="N7">
-        <v>24.0403904790522</v>
-      </c>
-      <c r="O7">
-        <v>0.246254999657285</v>
-      </c>
-      <c r="P7">
-        <v>0.246254999657285</v>
-      </c>
-      <c r="Q7">
-        <v>765.8761502975806</v>
-      </c>
-      <c r="R7">
-        <v>765.8761502975806</v>
-      </c>
-      <c r="S7">
-        <v>0.2114166993312353</v>
-      </c>
-      <c r="T7">
-        <v>0.2114166993312353</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H9">
+        <v>271.560221</v>
+      </c>
+      <c r="I9">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J9">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>42.26455300000001</v>
+      </c>
+      <c r="N9">
+        <v>126.793659</v>
+      </c>
+      <c r="O9">
+        <v>0.3841479626536184</v>
+      </c>
+      <c r="P9">
+        <v>0.3841479626536184</v>
+      </c>
+      <c r="Q9">
+        <v>3825.790451048739</v>
+      </c>
+      <c r="R9">
+        <v>34432.11405943865</v>
+      </c>
+      <c r="S9">
+        <v>0.3189271786785036</v>
+      </c>
+      <c r="T9">
+        <v>0.3189271786785036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H10">
+        <v>271.560221</v>
+      </c>
+      <c r="I10">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J10">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.24183366666666</v>
+      </c>
+      <c r="N10">
+        <v>93.72550099999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2839610477511313</v>
+      </c>
+      <c r="P10">
+        <v>0.2839610477511314</v>
+      </c>
+      <c r="Q10">
+        <v>2828.013084988414</v>
+      </c>
+      <c r="R10">
+        <v>25452.11776489572</v>
+      </c>
+      <c r="S10">
+        <v>0.235750035450584</v>
+      </c>
+      <c r="T10">
+        <v>0.235750035450584</v>
       </c>
     </row>
   </sheetData>
